--- a/Syntax Highlighting 2/CONSORT.xlsx
+++ b/Syntax Highlighting 2/CONSORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloudspeicher\Meine Ablage\Uni\Angewandte Informatik - Systems Engineering\20 Empirical Methods for Software Engineers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janko\Documents\GitHub\EMSE_2025\Syntax Highlighting 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFFFBC-60A3-42EF-BA5C-6494D575B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B305F9-FE3B-4A5F-ACC9-8B47C63FE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>1a</t>
   </si>
@@ -204,18 +204,9 @@
     <t>Done as part of a university course, Framework was provided</t>
   </si>
   <si>
-    <t>Participants monstly other course participants</t>
-  </si>
-  <si>
     <t>Trial ended with the semester as part of a university course</t>
   </si>
   <si>
-    <t>No demographic measurements taken, but presumably all participants in their early 20s, university students</t>
-  </si>
-  <si>
-    <t>Participants of the same university course</t>
-  </si>
-  <si>
     <t>Data collected at home or within the premises of the course</t>
   </si>
   <si>
@@ -241,6 +232,54 @@
   </si>
   <si>
     <t>Syntax Highlighting</t>
+  </si>
+  <si>
+    <t>Participants mostly other course participants</t>
+  </si>
+  <si>
+    <t>Participants of the same university course, no criteria</t>
+  </si>
+  <si>
+    <t>No interventions, everyone took the same trial</t>
+  </si>
+  <si>
+    <t>Find and count a number of string-literals within a line of code between 1 and 9, randomly generated and presented to the participant</t>
+  </si>
+  <si>
+    <t>Syntax highlighting will greatly improve the readability and findability of String-Literals within a line of code</t>
+  </si>
+  <si>
+    <t>Among other methods to improve readability of code, syntax highlighting is suspected to have the greates effect to find a specific piece of information within a code fragment</t>
+  </si>
+  <si>
+    <t>Number of characters in the presented code fragment has been fixed to a specific value in order to eliminate this value as an influencing factor on comprehension time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random allocation sequence provided by the used framework-software provided for this course, Participants were other people enrolled in the course and chosen at random </t>
+  </si>
+  <si>
+    <t>No changed or added outcomes during this trial</t>
+  </si>
+  <si>
+    <t>Measured is the reaction time of the user when counting string-literals, The reaction time is measured and saved automatically by the framework as well as other data such as the correctness of the given answer and the given treatment combinations for each question and the order of the questions</t>
+  </si>
+  <si>
+    <t>Results were compiled later and divided into equal thirds per participant to measure the effect of advancing time on the measure time</t>
+  </si>
+  <si>
+    <t>N-of-1 experiment, data from a single participant is included in the data so far</t>
+  </si>
+  <si>
+    <t>Potential Bias: Participants might answer in a way that adheres to their believe on which treatment will work better intuitively or on purpose, they also might just randomly input answers as time goes on due to being bored</t>
+  </si>
+  <si>
+    <t>Although the results can not be generalized due to the fact that the participants all come from a similar group (software engineering students close to their bachelors degree), trying the experiment with one participant not related to software development at all hinted at results that could be considered generalizable in the future if more participants from various other groups corroborate these measurements</t>
+  </si>
+  <si>
+    <t>No harms observed (Maybe light eye strain, fatigue, frustration, decreased productivity, but nothing measured)</t>
+  </si>
+  <si>
+    <t>No demographic measurements taken, but presumably all participants in their early 20s, university students (software engineering)</t>
   </si>
 </sst>
 </file>
@@ -588,41 +627,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,73 +643,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,12 +672,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,7 +682,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,429 +1049,469 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="108.7109375" customWidth="1"/>
+    <col min="4" max="4" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="21">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="36" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46">
-        <v>5</v>
-      </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="35" t="s">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="23">
         <v>9</v>
       </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="38" t="s">
+      <c r="D19" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="24">
         <v>10</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="D20" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="48">
-        <v>9</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51">
-        <v>10</v>
-      </c>
-      <c r="D20" s="52"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="23">
         <v>15</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30" t="s">
+      <c r="D29" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="24">
         <v>16</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="38" t="s">
+      <c r="D30" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="24">
         <v>18</v>
       </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="23">
         <v>19</v>
       </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
+      <c r="D34" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="26">
         <v>20</v>
       </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="48">
-        <v>15</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51">
-        <v>16</v>
-      </c>
-      <c r="D30" s="52"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51">
-        <v>18</v>
-      </c>
-      <c r="D33" s="52"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="48">
-        <v>19</v>
-      </c>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="53">
-        <v>20</v>
-      </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1">
         <v>21</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="4">
         <v>22</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="27">
         <v>23</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="8">
         <v>24</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A27:B28"/>
@@ -1441,20 +1520,6 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Syntax Highlighting 2/CONSORT.xlsx
+++ b/Syntax Highlighting 2/CONSORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janko\Documents\GitHub\EMSE_2025\Syntax Highlighting 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B305F9-FE3B-4A5F-ACC9-8B47C63FE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7953762-2190-410A-9420-ABAD7B5A4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>1a</t>
   </si>
@@ -228,9 +228,6 @@
     <t>No blinding</t>
   </si>
   <si>
-    <t>Anova</t>
-  </si>
-  <si>
     <t>Syntax Highlighting</t>
   </si>
   <si>
@@ -246,12 +243,6 @@
     <t>Find and count a number of string-literals within a line of code between 1 and 9, randomly generated and presented to the participant</t>
   </si>
   <si>
-    <t>Syntax highlighting will greatly improve the readability and findability of String-Literals within a line of code</t>
-  </si>
-  <si>
-    <t>Among other methods to improve readability of code, syntax highlighting is suspected to have the greates effect to find a specific piece of information within a code fragment</t>
-  </si>
-  <si>
     <t>Number of characters in the presented code fragment has been fixed to a specific value in order to eliminate this value as an influencing factor on comprehension time</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>No changed or added outcomes during this trial</t>
   </si>
   <si>
-    <t>Measured is the reaction time of the user when counting string-literals, The reaction time is measured and saved automatically by the framework as well as other data such as the correctness of the given answer and the given treatment combinations for each question and the order of the questions</t>
-  </si>
-  <si>
     <t>Results were compiled later and divided into equal thirds per participant to measure the effect of advancing time on the measure time</t>
   </si>
   <si>
@@ -273,13 +261,61 @@
     <t>Potential Bias: Participants might answer in a way that adheres to their believe on which treatment will work better intuitively or on purpose, they also might just randomly input answers as time goes on due to being bored</t>
   </si>
   <si>
-    <t>Although the results can not be generalized due to the fact that the participants all come from a similar group (software engineering students close to their bachelors degree), trying the experiment with one participant not related to software development at all hinted at results that could be considered generalizable in the future if more participants from various other groups corroborate these measurements</t>
-  </si>
-  <si>
     <t>No harms observed (Maybe light eye strain, fatigue, frustration, decreased productivity, but nothing measured)</t>
   </si>
   <si>
     <t>No demographic measurements taken, but presumably all participants in their early 20s, university students (software engineering)</t>
+  </si>
+  <si>
+    <t>No participants were excluded, No trials were lost or removed from the dataset, All data points were included in the final analysis</t>
+  </si>
+  <si>
+    <t>The experimenter took part in the study (so far) and completed all trials, All presented conditions were reviewed as intended, Not data points were excluded, All trials were analyzed for the primary outcome (reaction time)</t>
+  </si>
+  <si>
+    <t>Before collecting data, a model was developed to predict performance, This model assumed fixed input time and a linear relationship between literal count and processing time for the highlighted treatment</t>
+  </si>
+  <si>
+    <t>Although the results can not be generalized due to the fact that the participants all come from a similar group</t>
+  </si>
+  <si>
+    <t>Software engineering students, trying the experiment with one participant not related to software development at all hinted at results that could be considered generalizable in the future if more participants from various other groups corroborate these measurements</t>
+  </si>
+  <si>
+    <t>The reaction time for the non-highlighted variant depends on the character count of the code-snippet, which is a constant for this experiment to lower interpretation complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among other methods to improve readability of code, syntax highlighting is suspected to have the greates effect to find a specific piece of information within a code fragment. </t>
+  </si>
+  <si>
+    <t>Syntax highlighting will greatly improve the readability and findability of String-Literals within a line of code. Without highlighting, each code fragment will take approximately the same time to process as the participant has to read it completely</t>
+  </si>
+  <si>
+    <t>Primary outcome was the reaction time in milliseconds for each treatment. Mean reaction time with highlighting was 2200ms, Mean reaction time without highlighting was 6000ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In contrast to the proposed outcomes, reaction time varied according to the number of string-literals for both treatments, increasing with the number of literals. Regardless, reaction-time was significantly higher for non-highlighted code snippets </t>
+  </si>
+  <si>
+    <t>Not applicable: The study measured continuous reaction time data, not binary outcomes</t>
+  </si>
+  <si>
+    <t>ANOVA in Jamovi software to analyze reaction time according to the treatments, as well as across literal counts / the correct answer</t>
+  </si>
+  <si>
+    <t>No additional analyses were performed beyond the pre-specified comparisons</t>
+  </si>
+  <si>
+    <t>The results did not support the hypothesis. Reaction time varies across the literal count in both highlighted and not highlighted variants, increasing with the literal count</t>
+  </si>
+  <si>
+    <t>Actual results deviated from the model</t>
+  </si>
+  <si>
+    <t>This implies that the model overestimated real-world complexity without highlighting significantly and that humas are better than expected when analyzing non-highlighted code snippets</t>
+  </si>
+  <si>
+    <t>Reaction times were also generally lower than anticipated at about 50% of the estimated needed time for each treatment</t>
   </si>
 </sst>
 </file>
@@ -325,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -615,22 +651,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,89 +768,137 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,480 +1180,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" customWidth="1"/>
+    <col min="4" max="4" width="237.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>68</v>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>74</v>
+      <c r="D6" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>73</v>
+      <c r="D7" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>70</v>
+      <c r="D10" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="21">
+      <c r="B12" s="32"/>
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>71</v>
+      <c r="D12" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="20">
+        <v>15</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="21">
+        <v>16</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="21">
+        <v>18</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="20">
+        <v>19</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="23">
+        <v>20</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="23">
-        <v>9</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="24">
-        <v>10</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="16" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="62">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="18" t="s">
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="61">
         <v>22</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="23">
-        <v>15</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="24">
-        <v>16</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="11" t="s">
+      <c r="D41" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="68"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="68"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="24">
         <v>23</v>
       </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="13" t="s">
+      <c r="D44" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5">
         <v>24</v>
       </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="24">
-        <v>18</v>
-      </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="23">
-        <v>19</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="26">
-        <v>20</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="1">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="4">
-        <v>22</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="27">
-        <v>23</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="8">
-        <v>24</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="13" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
+  <mergeCells count="27">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A13:B15"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Syntax Highlighting 2/CONSORT.xlsx
+++ b/Syntax Highlighting 2/CONSORT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janko\Documents\GitHub\EMSE_2025\Syntax Highlighting 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7953762-2190-410A-9420-ABAD7B5A4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82852609-5F80-4312-AB2E-CE775BF4FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -710,11 +710,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -765,140 +817,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,30 +1242,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1225,15 +1274,15 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1247,7 +1296,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
         <v>4</v>
@@ -1257,7 +1306,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1271,7 +1320,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
         <v>6</v>
@@ -1281,7 +1330,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="35"/>
@@ -1293,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="36"/>
       <c r="C11" s="15" t="s">
         <v>8</v>
@@ -1303,10 +1352,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="18">
         <v>5</v>
       </c>
@@ -1315,11 +1364,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1327,15 +1376,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="56" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="36"/>
       <c r="C15" s="15" t="s">
         <v>10</v>
@@ -1345,10 +1394,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1406,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1416,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1381,7 +1430,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
         <v>14</v>
@@ -1391,10 +1440,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="20">
         <v>9</v>
       </c>
@@ -1403,10 +1452,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="21">
         <v>10</v>
       </c>
@@ -1415,10 +1464,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1427,8 +1476,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1486,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="35"/>
@@ -1449,7 +1498,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="36"/>
       <c r="C25" s="15" t="s">
         <v>18</v>
@@ -1459,7 +1508,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1473,7 +1522,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
         <v>20</v>
@@ -1483,7 +1532,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="35"/>
@@ -1495,7 +1544,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="36"/>
       <c r="C29" s="15" t="s">
         <v>22</v>
@@ -1505,10 +1554,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="20">
         <v>15</v>
       </c>
@@ -1517,10 +1566,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="21">
         <v>16</v>
       </c>
@@ -1529,11 +1578,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -1541,24 +1590,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="66" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="10" t="s">
         <v>24</v>
       </c>
@@ -1567,10 +1616,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="21">
         <v>18</v>
       </c>
@@ -1579,19 +1628,19 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="20">
+      <c r="B37" s="28"/>
+      <c r="C37" s="62">
         <v>19</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -1605,11 +1654,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="66">
         <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1617,57 +1666,57 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="60" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="26">
         <v>22</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="56" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="69"/>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="65">
         <v>23</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1679,7 +1728,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="10" t="s">
         <v>54</v>
       </c>
@@ -1691,19 +1740,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A37:B37"/>
+  <mergeCells count="28">
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A10:B11"/>
@@ -1712,13 +1756,19 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
